--- a/Industrials/Republic Services.xlsx
+++ b/Industrials/Republic Services.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ADA7E6-9748-5240-86D7-911793E91E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE0A298-2EA6-B647-90D0-6B2C7E757FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2421,11 +2421,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>149.16999999999999</v>
+    <v>149.30000000000001</v>
     <v>119.72</v>
-    <v>0.66279999999999994</v>
-    <v>-0.1</v>
-    <v>-7.2650000000000004E-4</v>
+    <v>0.66320000000000001</v>
+    <v>-1.1299999999999999</v>
+    <v>-7.7880000000000007E-3</v>
+    <v>0.28999999999999998</v>
+    <v>2.0140000000000002E-3</v>
     <v>USD</v>
     <v>Republic Services, Inc. is a provider of environmental services in the United States. Through its subsidiaries, the Company provides a range of products and services, including recycling, solid waste, special waste, hazardous waste, container rental and field services. The Company operates through three segments: Group 1, Group 2 and Group 3. Group 1 is its recycling and solid waste business operating primarily in geographic areas located in the western United States. Group 2 is its recycling and solid waste business operating primarily in geographic areas located in the southeastern and mid-western United States and the eastern seaboard of the United States. Group 3 is its environmental solutions business operating primarily in geographic areas located across the United States and Canada. The Company is engaged in operating approximately 73 landfill gas-to- energy and other renewable energy projects and has post-closure responsibility for 128 closed landfills.</v>
     <v>40000</v>
@@ -2433,24 +2435,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>18500 N Allied Way, PHOENIX, AZ, 85054 US</v>
-    <v>138.32</v>
+    <v>145.27000000000001</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45035.958333344533</v>
+    <v>45068.858515161715</v>
     <v>0</v>
-    <v>137.38</v>
-    <v>43496144744</v>
+    <v>143.35</v>
+    <v>45531999908</v>
     <v>REPUBLIC SERVICES, INC.</v>
     <v>REPUBLIC SERVICES, INC.</v>
-    <v>138</v>
-    <v>29.3156</v>
-    <v>137.63999999999999</v>
-    <v>137.54</v>
-    <v>316243600</v>
+    <v>144.84</v>
+    <v>30.273399999999999</v>
+    <v>145.09</v>
+    <v>143.96</v>
+    <v>144.25</v>
+    <v>316282300</v>
     <v>RSG</v>
     <v>REPUBLIC SERVICES, INC. (XNYS:RSG)</v>
-    <v>875361</v>
-    <v>1281349</v>
+    <v>1163516</v>
+    <v>1145089</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -2482,6 +2485,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2502,6 +2507,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2518,7 +2524,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2529,13 +2535,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2601,13 +2610,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2652,6 +2667,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2659,6 +2677,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3020,7 +3041,7 @@
   <dimension ref="A1:AI118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="AC99" sqref="AC99"/>
@@ -4577,15 +4598,15 @@
       </c>
       <c r="AG16" s="30">
         <f>AH101/Z3</f>
-        <v>3.2192420228993508</v>
+        <v>3.369919986085721</v>
       </c>
       <c r="AH16" s="30">
         <f>AH101/Z28</f>
-        <v>29.239140053777898</v>
+        <v>30.60769017746706</v>
       </c>
       <c r="AI16" s="31">
         <f>AH101/Z106</f>
-        <v>25.055382917050693</v>
+        <v>26.228110546082949</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11109,7 +11130,7 @@
       </c>
       <c r="AH95" s="39" cm="1">
         <f t="array" ref="AH95">_FV(A1,"Beta")</f>
-        <v>0.66279999999999994</v>
+        <v>0.66320000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11282,7 +11303,7 @@
       </c>
       <c r="AH97" s="36">
         <f>(AH94)+((AH95)*(AH96-AH94))</f>
-        <v>6.9483539999999996E-2</v>
+        <v>6.9500760000000009E-2</v>
       </c>
     </row>
     <row r="98" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -11540,7 +11561,7 @@
       </c>
       <c r="AH100" s="34">
         <f>AH99/AH103</f>
-        <v>0.2131901113756052</v>
+        <v>0.20561783083555354</v>
       </c>
     </row>
     <row r="101" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11627,7 +11648,7 @@
       </c>
       <c r="AH101" s="40" cm="1">
         <f t="array" ref="AH101">_FV(A1,"Market cap",TRUE)</f>
-        <v>43496144744</v>
+        <v>45531999908</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11714,7 +11735,7 @@
       </c>
       <c r="AH102" s="34">
         <f>AH101/AH103</f>
-        <v>0.78680988862439483</v>
+        <v>0.79438216916444648</v>
       </c>
     </row>
     <row r="103" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11801,7 +11822,7 @@
       </c>
       <c r="AH103" s="41">
         <f>AH99+AH101</f>
-        <v>55281644744</v>
+        <v>57317499908</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12000,7 +12021,7 @@
       </c>
       <c r="AH105" s="26">
         <f>(AH100*AH92)+(AH102*AH97)</f>
-        <v>6.0482724052937323E-2</v>
+        <v>6.0816102492246928E-2</v>
       </c>
     </row>
     <row r="106" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -12146,7 +12167,7 @@
       <c r="AD107" s="43"/>
       <c r="AE107" s="46">
         <f>AE106*(1+AH107)/(AH108-AH107)</f>
-        <v>69371084473.352402</v>
+        <v>68725374240.644989</v>
       </c>
       <c r="AF107" s="47" t="s">
         <v>148</v>
@@ -12177,7 +12198,7 @@
       </c>
       <c r="AE108" s="46">
         <f>AE107+AE106</f>
-        <v>71772523544.202133</v>
+        <v>71126813311.49472</v>
       </c>
       <c r="AF108" s="47" t="s">
         <v>144</v>
@@ -12187,7 +12208,7 @@
       </c>
       <c r="AH108" s="51">
         <f>AH105</f>
-        <v>6.0482724052937323E-2</v>
+        <v>6.0816102492246928E-2</v>
       </c>
     </row>
     <row r="109" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -12202,7 +12223,7 @@
       </c>
       <c r="AB110" s="40">
         <f>NPV(AH108,AA108,AB108,AC108,AD108,AE108)</f>
-        <v>60562807224.733078</v>
+        <v>59992562103.086784</v>
       </c>
     </row>
     <row r="111" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12229,7 +12250,7 @@
       </c>
       <c r="AB113" s="40">
         <f>AB110+AB111-AB112</f>
-        <v>48920707224.733078</v>
+        <v>48350462103.086784</v>
       </c>
     </row>
     <row r="114" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12247,7 +12268,7 @@
       </c>
       <c r="AB115" s="55">
         <f>AB113/AB114</f>
-        <v>162.74000637130166</v>
+        <v>160.84302450013601</v>
       </c>
     </row>
     <row r="116" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12256,7 +12277,7 @@
       </c>
       <c r="AB116" s="56" cm="1">
         <f t="array" ref="AB116">_FV(A1,"Price")</f>
-        <v>137.54</v>
+        <v>143.96</v>
       </c>
     </row>
     <row r="117" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12265,7 +12286,7 @@
       </c>
       <c r="AB117" s="58">
         <f>AB115/AB116-1</f>
-        <v>0.18321947339902334</v>
+        <v>0.11727580230714096</v>
       </c>
     </row>
     <row r="118" spans="27:28" ht="20" x14ac:dyDescent="0.25">

--- a/Industrials/Republic Services.xlsx
+++ b/Industrials/Republic Services.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE0A298-2EA6-B647-90D0-6B2C7E757FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D0E412-AE55-FA45-BDCC-08BC1FAA5A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2423,37 +2423,37 @@
     <v>Powered by Refinitiv</v>
     <v>149.30000000000001</v>
     <v>119.72</v>
-    <v>0.66320000000000001</v>
-    <v>-1.1299999999999999</v>
-    <v>-7.7880000000000007E-3</v>
-    <v>0.28999999999999998</v>
-    <v>2.0140000000000002E-3</v>
+    <v>0.65659999999999996</v>
+    <v>1.18</v>
+    <v>8.1630000000000001E-3</v>
+    <v>-0.15</v>
+    <v>-1.029E-3</v>
     <v>USD</v>
-    <v>Republic Services, Inc. is a provider of environmental services in the United States. Through its subsidiaries, the Company provides a range of products and services, including recycling, solid waste, special waste, hazardous waste, container rental and field services. The Company operates through three segments: Group 1, Group 2 and Group 3. Group 1 is its recycling and solid waste business operating primarily in geographic areas located in the western United States. Group 2 is its recycling and solid waste business operating primarily in geographic areas located in the southeastern and mid-western United States and the eastern seaboard of the United States. Group 3 is its environmental solutions business operating primarily in geographic areas located across the United States and Canada. The Company is engaged in operating approximately 73 landfill gas-to- energy and other renewable energy projects and has post-closure responsibility for 128 closed landfills.</v>
+    <v>Republic Services, Inc. provides environmental services in the United States. The Company provides a range of products and services, including recycling, solid waste, special waste, hazardous waste, container rental and field services. It has three segments. Group 1 segment is a recycling and solid waste business operating primarily in geographic areas located in the western United States. Group 2 segment is a recycling and solid waste business operating primarily in geographic areas located in the southeastern and mid-western United States and the eastern seaboard of the United States. Group 3 segment is an environmental solutions business operating primarily in geographic areas located across the United States and Canada. Its Colorado and New Mexico operations are vertically integrated operations, which include recycling, collection and disposal assets in four Colorado markets, including Denver, Colorado Springs, Durango and Canon City, as well as the Bloomfield, New Mexico, market.</v>
     <v>40000</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>18500 N Allied Way, PHOENIX, AZ, 85054 US</v>
-    <v>145.27000000000001</v>
+    <v>146.30000000000001</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45068.858515161715</v>
+    <v>45093.958333333336</v>
     <v>0</v>
-    <v>143.35</v>
-    <v>45531999908</v>
+    <v>145.24</v>
+    <v>46091819579</v>
     <v>REPUBLIC SERVICES, INC.</v>
     <v>REPUBLIC SERVICES, INC.</v>
-    <v>144.84</v>
-    <v>30.273399999999999</v>
-    <v>145.09</v>
-    <v>143.96</v>
-    <v>144.25</v>
+    <v>145.38999999999999</v>
+    <v>30.160799999999998</v>
+    <v>144.55000000000001</v>
+    <v>145.72999999999999</v>
+    <v>145.58000000000001</v>
     <v>316282300</v>
     <v>RSG</v>
     <v>REPUBLIC SERVICES, INC. (XNYS:RSG)</v>
-    <v>1163516</v>
-    <v>1145089</v>
+    <v>1516302</v>
+    <v>1113097</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -3041,10 +3041,10 @@
   <dimension ref="A1:AI118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC99" sqref="AC99"/>
+      <selection pane="bottomRight" activeCell="AB132" sqref="AB132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4598,15 +4598,15 @@
       </c>
       <c r="AG16" s="30">
         <f>AH101/Z3</f>
-        <v>3.369919986085721</v>
+        <v>3.4113534285375944</v>
       </c>
       <c r="AH16" s="30">
         <f>AH101/Z28</f>
-        <v>30.60769017746706</v>
+        <v>30.984014237026081</v>
       </c>
       <c r="AI16" s="31">
         <f>AH101/Z106</f>
-        <v>26.228110546082949</v>
+        <v>26.550587315092166</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11130,7 +11130,7 @@
       </c>
       <c r="AH95" s="39" cm="1">
         <f t="array" ref="AH95">_FV(A1,"Beta")</f>
-        <v>0.66320000000000001</v>
+        <v>0.65659999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11303,7 +11303,7 @@
       </c>
       <c r="AH97" s="36">
         <f>(AH94)+((AH95)*(AH96-AH94))</f>
-        <v>6.9500760000000009E-2</v>
+        <v>6.9216630000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -11561,7 +11561,7 @@
       </c>
       <c r="AH100" s="34">
         <f>AH99/AH103</f>
-        <v>0.20561783083555354</v>
+        <v>0.20362898775768823</v>
       </c>
     </row>
     <row r="101" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11648,7 +11648,7 @@
       </c>
       <c r="AH101" s="40" cm="1">
         <f t="array" ref="AH101">_FV(A1,"Market cap",TRUE)</f>
-        <v>45531999908</v>
+        <v>46091819579</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11735,7 +11735,7 @@
       </c>
       <c r="AH102" s="34">
         <f>AH101/AH103</f>
-        <v>0.79438216916444648</v>
+        <v>0.79637101224231177</v>
       </c>
     </row>
     <row r="103" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11822,7 +11822,7 @@
       </c>
       <c r="AH103" s="41">
         <f>AH99+AH101</f>
-        <v>57317499908</v>
+        <v>57877319579</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12021,7 +12021,7 @@
       </c>
       <c r="AH105" s="26">
         <f>(AH100*AH92)+(AH102*AH97)</f>
-        <v>6.0816102492246928E-2</v>
+        <v>6.0673832140956646E-2</v>
       </c>
     </row>
     <row r="106" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -12167,7 +12167,7 @@
       <c r="AD107" s="43"/>
       <c r="AE107" s="46">
         <f>AE106*(1+AH107)/(AH108-AH107)</f>
-        <v>68725374240.644989</v>
+        <v>68999457022.027679</v>
       </c>
       <c r="AF107" s="47" t="s">
         <v>148</v>
@@ -12198,7 +12198,7 @@
       </c>
       <c r="AE108" s="46">
         <f>AE107+AE106</f>
-        <v>71126813311.49472</v>
+        <v>71400896092.877411</v>
       </c>
       <c r="AF108" s="47" t="s">
         <v>144</v>
@@ -12208,7 +12208,7 @@
       </c>
       <c r="AH108" s="51">
         <f>AH105</f>
-        <v>6.0816102492246928E-2</v>
+        <v>6.0673832140956646E-2</v>
       </c>
     </row>
     <row r="109" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -12223,7 +12223,7 @@
       </c>
       <c r="AB110" s="40">
         <f>NPV(AH108,AA108,AB108,AC108,AD108,AE108)</f>
-        <v>59992562103.086784</v>
+        <v>60234611415.358192</v>
       </c>
     </row>
     <row r="111" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12250,7 +12250,7 @@
       </c>
       <c r="AB113" s="40">
         <f>AB110+AB111-AB112</f>
-        <v>48350462103.086784</v>
+        <v>48592511415.358192</v>
       </c>
     </row>
     <row r="114" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="AB115" s="55">
         <f>AB113/AB114</f>
-        <v>160.84302450013601</v>
+        <v>161.64822763099554</v>
       </c>
     </row>
     <row r="116" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12277,7 +12277,7 @@
       </c>
       <c r="AB116" s="56" cm="1">
         <f t="array" ref="AB116">_FV(A1,"Price")</f>
-        <v>143.96</v>
+        <v>145.72999999999999</v>
       </c>
     </row>
     <row r="117" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12286,7 +12286,7 @@
       </c>
       <c r="AB117" s="58">
         <f>AB115/AB116-1</f>
-        <v>0.11727580230714096</v>
+        <v>0.10923095883480105</v>
       </c>
     </row>
     <row r="118" spans="27:28" ht="20" x14ac:dyDescent="0.25">
